--- a/data/trans_orig/P14B34-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3DCFCE6-A18F-4B11-9AE9-F1107CD11F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{042F899F-809F-44E1-ACF9-452C50742DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18E6C15C-EDB4-47B0-BA9A-93AC939CD48D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84DC15CB-CCC9-41AA-AEB6-C5AB92905510}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -193,55 +193,55 @@
     <t>48,57%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
   </si>
   <si>
     <t>51,43%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
   </si>
   <si>
     <t>32,32%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
   </si>
   <si>
     <t>67,68%</t>
   </si>
   <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
   </si>
   <si>
     <t>Población cuyo trastornos de próstata le limita en 2023 (Tasa respuesta: 3,17%)</t>
@@ -250,73 +250,73 @@
     <t>33,46%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
   </si>
   <si>
     <t>82,07%</t>
   </si>
   <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>82,88%</t>
   </si>
   <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>81,28%</t>
   </si>
   <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152ED028-32BB-4EFC-AD70-A2E74DDEA750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06694B8F-1155-41C8-B26A-48E182184BD0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1869,7 +1869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C6DB49-2CE1-4AE9-8CAB-A35F9F43D9CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C650C05-1ED6-438E-9847-F0CBA310B6CD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3022,7 +3022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98ADBB9-F50E-40B5-8948-6C2C53AEB8E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA5C96B-9C4E-4A01-BA5F-BCC8586B436A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B34-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{042F899F-809F-44E1-ACF9-452C50742DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8FCFB66-4B2E-4096-8FC3-57BE81D7EEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84DC15CB-CCC9-41AA-AEB6-C5AB92905510}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{91F74B44-8F15-41FC-88DB-C041311EDE0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="91">
   <si>
     <t>Población cuyo trastornos de próstata le limita en 2012 (Tasa respuesta: 1,71%)</t>
   </si>
@@ -112,19 +112,19 @@
     <t>37,45%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
   </si>
   <si>
     <t>62,55%</t>
   </si>
   <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -133,43 +133,43 @@
     <t>49,65%</t>
   </si>
   <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo trastornos de próstata le limita en 2015 (Tasa respuesta: 1,74%)</t>
+    <t>Población cuyo trastornos de próstata le limita en 2016 (Tasa respuesta: 1,74%)</t>
   </si>
   <si>
     <t>53,25%</t>
@@ -193,55 +193,49 @@
     <t>48,57%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>51,43%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
   </si>
   <si>
     <t>32,32%</t>
   </si>
   <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
   </si>
   <si>
     <t>67,68%</t>
   </si>
   <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
+    <t>43,65%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
+    <t>56,35%</t>
   </si>
   <si>
     <t>Población cuyo trastornos de próstata le limita en 2023 (Tasa respuesta: 3,17%)</t>
@@ -728,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06694B8F-1155-41C8-B26A-48E182184BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B025D9-BB27-417E-AA98-6EBCD6B4A664}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1869,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C650C05-1ED6-438E-9847-F0CBA310B6CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6411980F-F1A9-4BF5-8742-BA16F7558E3F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,10 +2860,10 @@
         <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2894,10 +2888,10 @@
         <v>62</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2906,13 @@
         <v>71268</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2940,13 +2934,13 @@
         <v>71268</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,7 +3016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA5C96B-9C4E-4A01-BA5F-BCC8586B436A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9B7F9B-3589-40EB-989F-4760732A8E03}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3039,7 +3033,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3569,13 +3563,13 @@
         <v>3468</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3597,13 +3591,13 @@
         <v>3468</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3612,13 @@
         <v>6896</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3646,13 +3640,13 @@
         <v>6896</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3712,13 @@
         <v>5164</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3746,13 +3740,13 @@
         <v>5164</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3761,13 @@
         <v>23644</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3795,13 +3789,13 @@
         <v>23644</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3861,13 @@
         <v>26204</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3895,13 +3889,13 @@
         <v>26204</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3910,13 @@
         <v>126842</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3944,13 +3938,13 @@
         <v>126842</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4010,13 @@
         <v>36247</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4044,13 +4038,13 @@
         <v>36247</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4059,13 @@
         <v>157381</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4093,13 +4087,13 @@
         <v>157381</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
